--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Icam2-Itgal.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Icam2-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.2659957795747</v>
+        <v>24.22127833333333</v>
       </c>
       <c r="H2">
-        <v>18.2659957795747</v>
+        <v>72.66383499999999</v>
       </c>
       <c r="I2">
-        <v>0.5621634910808512</v>
+        <v>0.599194028437092</v>
       </c>
       <c r="J2">
-        <v>0.5621634910808512</v>
+        <v>0.5991940284370921</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>29.5022967006222</v>
+        <v>0.1562936666666667</v>
       </c>
       <c r="N2">
-        <v>29.5022967006222</v>
+        <v>0.468881</v>
       </c>
       <c r="O2">
-        <v>0.2797484958580178</v>
+        <v>0.001322080137978314</v>
       </c>
       <c r="P2">
-        <v>0.2797484958580178</v>
+        <v>0.001322080137978314</v>
       </c>
       <c r="Q2">
-        <v>538.8888270213256</v>
+        <v>3.785632402070555</v>
       </c>
       <c r="R2">
-        <v>538.8888270213256</v>
+        <v>34.070691618635</v>
       </c>
       <c r="S2">
-        <v>0.1572643910561603</v>
+        <v>0.0007921825237918925</v>
       </c>
       <c r="T2">
-        <v>0.1572643910561603</v>
+        <v>0.0007921825237918923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.2659957795747</v>
+        <v>24.22127833333333</v>
       </c>
       <c r="H3">
-        <v>18.2659957795747</v>
+        <v>72.66383499999999</v>
       </c>
       <c r="I3">
-        <v>0.5621634910808512</v>
+        <v>0.599194028437092</v>
       </c>
       <c r="J3">
-        <v>0.5621634910808512</v>
+        <v>0.5991940284370921</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>23.4844501970959</v>
+        <v>0.05738533333333334</v>
       </c>
       <c r="N3">
-        <v>23.4844501970959</v>
+        <v>0.172156</v>
       </c>
       <c r="O3">
-        <v>0.2226857008916039</v>
+        <v>0.0004854196016340919</v>
       </c>
       <c r="P3">
-        <v>0.2226857008916039</v>
+        <v>0.0004854196016340918</v>
       </c>
       <c r="Q3">
-        <v>428.9668681857859</v>
+        <v>1.389946130917778</v>
       </c>
       <c r="R3">
-        <v>428.9668681857859</v>
+        <v>12.50951517826</v>
       </c>
       <c r="S3">
-        <v>0.1251857710270102</v>
+        <v>0.00029086052658546</v>
       </c>
       <c r="T3">
-        <v>0.1251857710270102</v>
+        <v>0.0002908605265854599</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.2659957795747</v>
+        <v>24.22127833333333</v>
       </c>
       <c r="H4">
-        <v>18.2659957795747</v>
+        <v>72.66383499999999</v>
       </c>
       <c r="I4">
-        <v>0.5621634910808512</v>
+        <v>0.599194028437092</v>
       </c>
       <c r="J4">
-        <v>0.5621634910808512</v>
+        <v>0.5991940284370921</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.4733257655346</v>
+        <v>37.765109</v>
       </c>
       <c r="N4">
-        <v>52.4733257655346</v>
+        <v>113.295327</v>
       </c>
       <c r="O4">
-        <v>0.4975658032503784</v>
+        <v>0.3194531268114046</v>
       </c>
       <c r="P4">
-        <v>0.4975658032503784</v>
+        <v>0.3194531268114045</v>
       </c>
       <c r="Q4">
-        <v>958.4775469735032</v>
+        <v>914.7192163776716</v>
       </c>
       <c r="R4">
-        <v>958.4775469735032</v>
+        <v>8232.472947399045</v>
       </c>
       <c r="S4">
-        <v>0.2797133289976806</v>
+        <v>0.1914144059509507</v>
       </c>
       <c r="T4">
-        <v>0.2797133289976806</v>
+        <v>0.1914144059509507</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.24785615656817</v>
+        <v>24.22127833333333</v>
       </c>
       <c r="H5">
-        <v>1.24785615656817</v>
+        <v>72.66383499999999</v>
       </c>
       <c r="I5">
-        <v>0.03840464991936122</v>
+        <v>0.599194028437092</v>
       </c>
       <c r="J5">
-        <v>0.03840464991936122</v>
+        <v>0.5991940284370921</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.5022967006222</v>
+        <v>23.90063033333334</v>
       </c>
       <c r="N5">
-        <v>29.5022967006222</v>
+        <v>71.701891</v>
       </c>
       <c r="O5">
-        <v>0.2797484958580178</v>
+        <v>0.2021742104000504</v>
       </c>
       <c r="P5">
-        <v>0.2797484958580178</v>
+        <v>0.2021742104000504</v>
       </c>
       <c r="Q5">
-        <v>36.81462257077222</v>
+        <v>578.9038196457761</v>
       </c>
       <c r="R5">
-        <v>36.81462257077222</v>
+        <v>5210.134376811985</v>
       </c>
       <c r="S5">
-        <v>0.01074364304889504</v>
+        <v>0.1211415795756944</v>
       </c>
       <c r="T5">
-        <v>0.01074364304889504</v>
+        <v>0.1211415795756944</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.24785615656817</v>
+        <v>24.22127833333333</v>
       </c>
       <c r="H6">
-        <v>1.24785615656817</v>
+        <v>72.66383499999999</v>
       </c>
       <c r="I6">
-        <v>0.03840464991936122</v>
+        <v>0.599194028437092</v>
       </c>
       <c r="J6">
-        <v>0.03840464991936122</v>
+        <v>0.5991940284370921</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.4844501970959</v>
+        <v>56.08363733333334</v>
       </c>
       <c r="N6">
-        <v>23.4844501970959</v>
+        <v>168.250912</v>
       </c>
       <c r="O6">
-        <v>0.2226857008916039</v>
+        <v>0.4744086217013212</v>
       </c>
       <c r="P6">
-        <v>0.2226857008916039</v>
+        <v>0.474408621701321</v>
       </c>
       <c r="Q6">
-        <v>29.30521576206469</v>
+        <v>1358.417389796391</v>
       </c>
       <c r="R6">
-        <v>29.30521576206469</v>
+        <v>12225.75650816752</v>
       </c>
       <c r="S6">
-        <v>0.008552166384789631</v>
+        <v>0.2842628131625031</v>
       </c>
       <c r="T6">
-        <v>0.008552166384789631</v>
+        <v>0.284262813162503</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.24785615656817</v>
+        <v>24.22127833333333</v>
       </c>
       <c r="H7">
-        <v>1.24785615656817</v>
+        <v>72.66383499999999</v>
       </c>
       <c r="I7">
-        <v>0.03840464991936122</v>
+        <v>0.599194028437092</v>
       </c>
       <c r="J7">
-        <v>0.03840464991936122</v>
+        <v>0.5991940284370921</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>52.4733257655346</v>
+        <v>0.254942</v>
       </c>
       <c r="N7">
-        <v>52.4733257655346</v>
+        <v>0.764826</v>
       </c>
       <c r="O7">
-        <v>0.4975658032503784</v>
+        <v>0.002156541347611445</v>
       </c>
       <c r="P7">
-        <v>0.4975658032503784</v>
+        <v>0.002156541347611445</v>
       </c>
       <c r="Q7">
-        <v>65.47916261212953</v>
+        <v>6.175021140856666</v>
       </c>
       <c r="R7">
-        <v>65.47916261212953</v>
+        <v>55.57519026770999</v>
       </c>
       <c r="S7">
-        <v>0.01910884048567654</v>
+        <v>0.001292186697566457</v>
       </c>
       <c r="T7">
-        <v>0.01910884048567654</v>
+        <v>0.001292186697566457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.80303365490189</v>
+        <v>1.321225333333333</v>
       </c>
       <c r="H8">
-        <v>4.80303365490189</v>
+        <v>3.963676</v>
       </c>
       <c r="I8">
-        <v>0.147820584204763</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="J8">
-        <v>0.147820584204763</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>29.5022967006222</v>
+        <v>0.1562936666666667</v>
       </c>
       <c r="N8">
-        <v>29.5022967006222</v>
+        <v>0.468881</v>
       </c>
       <c r="O8">
-        <v>0.2797484958580178</v>
+        <v>0.001322080137978314</v>
       </c>
       <c r="P8">
-        <v>0.2797484958580178</v>
+        <v>0.001322080137978314</v>
       </c>
       <c r="Q8">
-        <v>141.7005239499894</v>
+        <v>0.2064991518395555</v>
       </c>
       <c r="R8">
-        <v>141.7005239499894</v>
+        <v>1.858492366556</v>
       </c>
       <c r="S8">
-        <v>0.04135258608813591</v>
+        <v>4.321207182601019E-05</v>
       </c>
       <c r="T8">
-        <v>0.04135258608813591</v>
+        <v>4.321207182601019E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,184 +968,184 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.80303365490189</v>
+        <v>1.321225333333333</v>
       </c>
       <c r="H9">
-        <v>4.80303365490189</v>
+        <v>3.963676</v>
       </c>
       <c r="I9">
-        <v>0.147820584204763</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="J9">
-        <v>0.147820584204763</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>23.4844501970959</v>
+        <v>0.05738533333333334</v>
       </c>
       <c r="N9">
-        <v>23.4844501970959</v>
+        <v>0.172156</v>
       </c>
       <c r="O9">
-        <v>0.2226857008916039</v>
+        <v>0.0004854196016340919</v>
       </c>
       <c r="P9">
-        <v>0.2226857008916039</v>
+        <v>0.0004854196016340918</v>
       </c>
       <c r="Q9">
-        <v>112.7966046635189</v>
+        <v>0.07581895616177778</v>
       </c>
       <c r="R9">
-        <v>112.7966046635189</v>
+        <v>0.6823706054559999</v>
       </c>
       <c r="S9">
-        <v>0.03291753039984399</v>
+        <v>1.586589654364031E-05</v>
       </c>
       <c r="T9">
-        <v>0.03291753039984399</v>
+        <v>1.586589654364031E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.80303365490189</v>
+        <v>1.321225333333333</v>
       </c>
       <c r="H10">
-        <v>4.80303365490189</v>
+        <v>3.963676</v>
       </c>
       <c r="I10">
-        <v>0.147820584204763</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="J10">
-        <v>0.147820584204763</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>52.4733257655346</v>
+        <v>37.765109</v>
       </c>
       <c r="N10">
-        <v>52.4733257655346</v>
+        <v>113.295327</v>
       </c>
       <c r="O10">
-        <v>0.4975658032503784</v>
+        <v>0.3194531268114046</v>
       </c>
       <c r="P10">
-        <v>0.4975658032503784</v>
+        <v>0.3194531268114045</v>
       </c>
       <c r="Q10">
-        <v>252.0311496364932</v>
+        <v>49.89621872689467</v>
       </c>
       <c r="R10">
-        <v>252.0311496364932</v>
+        <v>449.065968542052</v>
       </c>
       <c r="S10">
-        <v>0.07355046771678309</v>
+        <v>0.01044129706231499</v>
       </c>
       <c r="T10">
-        <v>0.07355046771678309</v>
+        <v>0.01044129706231498</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.92927833923327</v>
+        <v>1.321225333333333</v>
       </c>
       <c r="H11">
-        <v>3.92927833923327</v>
+        <v>3.963676</v>
       </c>
       <c r="I11">
-        <v>0.1209294502893603</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="J11">
-        <v>0.1209294502893603</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.5022967006222</v>
+        <v>23.90063033333334</v>
       </c>
       <c r="N11">
-        <v>29.5022967006222</v>
+        <v>71.701891</v>
       </c>
       <c r="O11">
-        <v>0.2797484958580178</v>
+        <v>0.2021742104000504</v>
       </c>
       <c r="P11">
-        <v>0.2797484958580178</v>
+        <v>0.2021742104000504</v>
       </c>
       <c r="Q11">
-        <v>115.922735383388</v>
+        <v>31.57811827903511</v>
       </c>
       <c r="R11">
-        <v>115.922735383388</v>
+        <v>284.203064511316</v>
       </c>
       <c r="S11">
-        <v>0.03382983182338548</v>
+        <v>0.006608046101148807</v>
       </c>
       <c r="T11">
-        <v>0.03382983182338548</v>
+        <v>0.006608046101148807</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.92927833923327</v>
+        <v>1.321225333333333</v>
       </c>
       <c r="H12">
-        <v>3.92927833923327</v>
+        <v>3.963676</v>
       </c>
       <c r="I12">
-        <v>0.1209294502893603</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="J12">
-        <v>0.1209294502893603</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.4844501970959</v>
+        <v>56.08363733333334</v>
       </c>
       <c r="N12">
-        <v>23.4844501970959</v>
+        <v>168.250912</v>
       </c>
       <c r="O12">
-        <v>0.2226857008916039</v>
+        <v>0.4744086217013212</v>
       </c>
       <c r="P12">
-        <v>0.2226857008916039</v>
+        <v>0.474408621701321</v>
       </c>
       <c r="Q12">
-        <v>92.27694146825141</v>
+        <v>74.09912243027911</v>
       </c>
       <c r="R12">
-        <v>92.27694146825141</v>
+        <v>666.8921018725119</v>
       </c>
       <c r="S12">
-        <v>0.02692925939612257</v>
+        <v>0.01550600364300477</v>
       </c>
       <c r="T12">
-        <v>0.02692925939612257</v>
+        <v>0.01550600364300477</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.92927833923327</v>
+        <v>1.321225333333333</v>
       </c>
       <c r="H13">
-        <v>3.92927833923327</v>
+        <v>3.963676</v>
       </c>
       <c r="I13">
-        <v>0.1209294502893603</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="J13">
-        <v>0.1209294502893603</v>
+        <v>0.03268491113714848</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>52.4733257655346</v>
+        <v>0.254942</v>
       </c>
       <c r="N13">
-        <v>52.4733257655346</v>
+        <v>0.764826</v>
       </c>
       <c r="O13">
-        <v>0.4975658032503784</v>
+        <v>0.002156541347611445</v>
       </c>
       <c r="P13">
-        <v>0.4975658032503784</v>
+        <v>0.002156541347611445</v>
       </c>
       <c r="Q13">
-        <v>206.1823023180461</v>
+        <v>0.3368358289306667</v>
       </c>
       <c r="R13">
-        <v>206.1823023180461</v>
+        <v>3.031522460376</v>
       </c>
       <c r="S13">
-        <v>0.06017035906985228</v>
+        <v>7.048636231026652E-05</v>
       </c>
       <c r="T13">
-        <v>0.06017035906985228</v>
+        <v>7.048636231026651E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.38789378134439</v>
+        <v>5.659826666666667</v>
       </c>
       <c r="H14">
-        <v>3.38789378134439</v>
+        <v>16.97948</v>
       </c>
       <c r="I14">
-        <v>0.1042675263103566</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="J14">
-        <v>0.1042675263103566</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>29.5022967006222</v>
+        <v>0.1562936666666667</v>
       </c>
       <c r="N14">
-        <v>29.5022967006222</v>
+        <v>0.468881</v>
       </c>
       <c r="O14">
-        <v>0.2797484958580178</v>
+        <v>0.001322080137978314</v>
       </c>
       <c r="P14">
-        <v>0.2797484958580178</v>
+        <v>0.001322080137978314</v>
       </c>
       <c r="Q14">
-        <v>99.95064752741507</v>
+        <v>0.8845950624311111</v>
       </c>
       <c r="R14">
-        <v>99.95064752741507</v>
+        <v>7.96135556188</v>
       </c>
       <c r="S14">
-        <v>0.02916868365215856</v>
+        <v>0.0001851106168436329</v>
       </c>
       <c r="T14">
-        <v>0.02916868365215856</v>
+        <v>0.0001851106168436329</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.38789378134439</v>
+        <v>5.659826666666667</v>
       </c>
       <c r="H15">
-        <v>3.38789378134439</v>
+        <v>16.97948</v>
       </c>
       <c r="I15">
-        <v>0.1042675263103566</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="J15">
-        <v>0.1042675263103566</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>23.4844501970959</v>
+        <v>0.05738533333333334</v>
       </c>
       <c r="N15">
-        <v>23.4844501970959</v>
+        <v>0.172156</v>
       </c>
       <c r="O15">
-        <v>0.2226857008916039</v>
+        <v>0.0004854196016340919</v>
       </c>
       <c r="P15">
-        <v>0.2226857008916039</v>
+        <v>0.0004854196016340918</v>
       </c>
       <c r="Q15">
-        <v>79.56282278103323</v>
+        <v>0.3247910398755556</v>
       </c>
       <c r="R15">
-        <v>79.56282278103323</v>
+        <v>2.92311935888</v>
       </c>
       <c r="S15">
-        <v>0.02321888717665551</v>
+        <v>6.796586629300924E-05</v>
       </c>
       <c r="T15">
-        <v>0.02321888717665551</v>
+        <v>6.796586629300924E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.38789378134439</v>
+        <v>5.659826666666667</v>
       </c>
       <c r="H16">
-        <v>3.38789378134439</v>
+        <v>16.97948</v>
       </c>
       <c r="I16">
-        <v>0.1042675263103566</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="J16">
-        <v>0.1042675263103566</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>52.4733257655346</v>
+        <v>37.765109</v>
       </c>
       <c r="N16">
-        <v>52.4733257655346</v>
+        <v>113.295327</v>
       </c>
       <c r="O16">
-        <v>0.4975658032503784</v>
+        <v>0.3194531268114046</v>
       </c>
       <c r="P16">
-        <v>0.4975658032503784</v>
+        <v>0.3194531268114045</v>
       </c>
       <c r="Q16">
-        <v>177.774054047513</v>
+        <v>213.7439709877733</v>
       </c>
       <c r="R16">
-        <v>177.774054047513</v>
+        <v>1923.69573888996</v>
       </c>
       <c r="S16">
-        <v>0.05187995548154256</v>
+        <v>0.04472812476187156</v>
       </c>
       <c r="T16">
-        <v>0.05187995548154256</v>
+        <v>0.04472812476187155</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.858261817088589</v>
+        <v>5.659826666666667</v>
       </c>
       <c r="H17">
-        <v>0.858261817088589</v>
+        <v>16.97948</v>
       </c>
       <c r="I17">
-        <v>0.0264142981953076</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="J17">
-        <v>0.0264142981953076</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.5022967006222</v>
+        <v>23.90063033333334</v>
       </c>
       <c r="N17">
-        <v>29.5022967006222</v>
+        <v>71.701891</v>
       </c>
       <c r="O17">
-        <v>0.2797484958580178</v>
+        <v>0.2021742104000504</v>
       </c>
       <c r="P17">
-        <v>0.2797484958580178</v>
+        <v>0.2021742104000504</v>
       </c>
       <c r="Q17">
-        <v>25.32069477456269</v>
+        <v>135.2734249107422</v>
       </c>
       <c r="R17">
-        <v>25.32069477456269</v>
+        <v>1217.46082419668</v>
       </c>
       <c r="S17">
-        <v>0.007389360189282453</v>
+        <v>0.02830735575095799</v>
       </c>
       <c r="T17">
-        <v>0.007389360189282453</v>
+        <v>0.02830735575095799</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,1233 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.858261817088589</v>
+        <v>5.659826666666667</v>
       </c>
       <c r="H18">
-        <v>0.858261817088589</v>
+        <v>16.97948</v>
       </c>
       <c r="I18">
-        <v>0.0264142981953076</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="J18">
-        <v>0.0264142981953076</v>
+        <v>0.140014671974952</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>23.4844501970959</v>
+        <v>56.08363733333334</v>
       </c>
       <c r="N18">
-        <v>23.4844501970959</v>
+        <v>168.250912</v>
       </c>
       <c r="O18">
-        <v>0.2226857008916039</v>
+        <v>0.4744086217013212</v>
       </c>
       <c r="P18">
-        <v>0.2226857008916039</v>
+        <v>0.474408621701321</v>
       </c>
       <c r="Q18">
-        <v>20.155806899486</v>
+        <v>317.4236661428622</v>
       </c>
       <c r="R18">
-        <v>20.155806899486</v>
+        <v>2856.81299528576</v>
       </c>
       <c r="S18">
-        <v>0.005882086507181899</v>
+        <v>0.06642416754959958</v>
       </c>
       <c r="T18">
-        <v>0.005882086507181899</v>
+        <v>0.06642416754959957</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.659826666666667</v>
+      </c>
+      <c r="H19">
+        <v>16.97948</v>
+      </c>
+      <c r="I19">
+        <v>0.140014671974952</v>
+      </c>
+      <c r="J19">
+        <v>0.140014671974952</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.254942</v>
+      </c>
+      <c r="N19">
+        <v>0.764826</v>
+      </c>
+      <c r="O19">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="P19">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="Q19">
+        <v>1.442927530053333</v>
+      </c>
+      <c r="R19">
+        <v>12.98634777048</v>
+      </c>
+      <c r="S19">
+        <v>0.0003019474293862375</v>
+      </c>
+      <c r="T19">
+        <v>0.0003019474293862374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.462671</v>
+      </c>
+      <c r="H20">
+        <v>13.388013</v>
+      </c>
+      <c r="I20">
+        <v>0.1103990374611822</v>
+      </c>
+      <c r="J20">
+        <v>0.1103990374611822</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1562936666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.468881</v>
+      </c>
+      <c r="O20">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="P20">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="Q20">
+        <v>0.6974872137170001</v>
+      </c>
+      <c r="R20">
+        <v>6.277384923453</v>
+      </c>
+      <c r="S20">
+        <v>0.0001459563746793528</v>
+      </c>
+      <c r="T20">
+        <v>0.0001459563746793528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.462671</v>
+      </c>
+      <c r="H21">
+        <v>13.388013</v>
+      </c>
+      <c r="I21">
+        <v>0.1103990374611822</v>
+      </c>
+      <c r="J21">
+        <v>0.1103990374611822</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.05738533333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.172156</v>
+      </c>
+      <c r="O21">
+        <v>0.0004854196016340919</v>
+      </c>
+      <c r="P21">
+        <v>0.0004854196016340918</v>
+      </c>
+      <c r="Q21">
+        <v>0.256091862892</v>
+      </c>
+      <c r="R21">
+        <v>2.304826766028</v>
+      </c>
+      <c r="S21">
+        <v>5.358985678519423E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.358985678519423E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.462671</v>
+      </c>
+      <c r="H22">
+        <v>13.388013</v>
+      </c>
+      <c r="I22">
+        <v>0.1103990374611822</v>
+      </c>
+      <c r="J22">
+        <v>0.1103990374611822</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>37.765109</v>
+      </c>
+      <c r="N22">
+        <v>113.295327</v>
+      </c>
+      <c r="O22">
+        <v>0.3194531268114046</v>
+      </c>
+      <c r="P22">
+        <v>0.3194531268114045</v>
+      </c>
+      <c r="Q22">
+        <v>168.533256746139</v>
+      </c>
+      <c r="R22">
+        <v>1516.799310715251</v>
+      </c>
+      <c r="S22">
+        <v>0.03526731771394404</v>
+      </c>
+      <c r="T22">
+        <v>0.03526731771394403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.462671</v>
+      </c>
+      <c r="H23">
+        <v>13.388013</v>
+      </c>
+      <c r="I23">
+        <v>0.1103990374611822</v>
+      </c>
+      <c r="J23">
+        <v>0.1103990374611822</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>23.90063033333334</v>
+      </c>
+      <c r="N23">
+        <v>71.701891</v>
+      </c>
+      <c r="O23">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="P23">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="Q23">
+        <v>106.660649870287</v>
+      </c>
+      <c r="R23">
+        <v>959.9458488325831</v>
+      </c>
+      <c r="S23">
+        <v>0.02231983822764009</v>
+      </c>
+      <c r="T23">
+        <v>0.02231983822764009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.858261817088589</v>
-      </c>
-      <c r="H19">
-        <v>0.858261817088589</v>
-      </c>
-      <c r="I19">
-        <v>0.0264142981953076</v>
-      </c>
-      <c r="J19">
-        <v>0.0264142981953076</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>52.4733257655346</v>
-      </c>
-      <c r="N19">
-        <v>52.4733257655346</v>
-      </c>
-      <c r="O19">
-        <v>0.4975658032503784</v>
-      </c>
-      <c r="P19">
-        <v>0.4975658032503784</v>
-      </c>
-      <c r="Q19">
-        <v>45.0358519202092</v>
-      </c>
-      <c r="R19">
-        <v>45.0358519202092</v>
-      </c>
-      <c r="S19">
-        <v>0.01314285149884324</v>
-      </c>
-      <c r="T19">
-        <v>0.01314285149884324</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.462671</v>
+      </c>
+      <c r="H24">
+        <v>13.388013</v>
+      </c>
+      <c r="I24">
+        <v>0.1103990374611822</v>
+      </c>
+      <c r="J24">
+        <v>0.1103990374611822</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>56.08363733333334</v>
+      </c>
+      <c r="N24">
+        <v>168.250912</v>
+      </c>
+      <c r="O24">
+        <v>0.4744086217013212</v>
+      </c>
+      <c r="P24">
+        <v>0.474408621701321</v>
+      </c>
+      <c r="Q24">
+        <v>250.282821901984</v>
+      </c>
+      <c r="R24">
+        <v>2252.545397117856</v>
+      </c>
+      <c r="S24">
+        <v>0.05237425519911195</v>
+      </c>
+      <c r="T24">
+        <v>0.05237425519911194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.462671</v>
+      </c>
+      <c r="H25">
+        <v>13.388013</v>
+      </c>
+      <c r="I25">
+        <v>0.1103990374611822</v>
+      </c>
+      <c r="J25">
+        <v>0.1103990374611822</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.254942</v>
+      </c>
+      <c r="N25">
+        <v>0.764826</v>
+      </c>
+      <c r="O25">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="P25">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="Q25">
+        <v>1.137722270082</v>
+      </c>
+      <c r="R25">
+        <v>10.239500430738</v>
+      </c>
+      <c r="S25">
+        <v>0.0002380800890215442</v>
+      </c>
+      <c r="T25">
+        <v>0.0002380800890215442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.718923666666667</v>
+      </c>
+      <c r="H26">
+        <v>11.156771</v>
+      </c>
+      <c r="I26">
+        <v>0.09199996889567036</v>
+      </c>
+      <c r="J26">
+        <v>0.09199996889567039</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.1562936666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.468881</v>
+      </c>
+      <c r="O26">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="P26">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="Q26">
+        <v>0.5812442159167778</v>
+      </c>
+      <c r="R26">
+        <v>5.231197943251</v>
+      </c>
+      <c r="S26">
+        <v>0.0001216313315715885</v>
+      </c>
+      <c r="T26">
+        <v>0.0001216313315715885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.718923666666667</v>
+      </c>
+      <c r="H27">
+        <v>11.156771</v>
+      </c>
+      <c r="I27">
+        <v>0.09199996889567036</v>
+      </c>
+      <c r="J27">
+        <v>0.09199996889567039</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.05738533333333334</v>
+      </c>
+      <c r="N27">
+        <v>0.172156</v>
+      </c>
+      <c r="O27">
+        <v>0.0004854196016340919</v>
+      </c>
+      <c r="P27">
+        <v>0.0004854196016340918</v>
+      </c>
+      <c r="Q27">
+        <v>0.2134116742528889</v>
+      </c>
+      <c r="R27">
+        <v>1.920705068276</v>
+      </c>
+      <c r="S27">
+        <v>4.465858825168515E-05</v>
+      </c>
+      <c r="T27">
+        <v>4.465858825168515E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.718923666666667</v>
+      </c>
+      <c r="H28">
+        <v>11.156771</v>
+      </c>
+      <c r="I28">
+        <v>0.09199996889567036</v>
+      </c>
+      <c r="J28">
+        <v>0.09199996889567039</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>37.765109</v>
+      </c>
+      <c r="N28">
+        <v>113.295327</v>
+      </c>
+      <c r="O28">
+        <v>0.3194531268114046</v>
+      </c>
+      <c r="P28">
+        <v>0.3194531268114045</v>
+      </c>
+      <c r="Q28">
+        <v>140.4455576343463</v>
+      </c>
+      <c r="R28">
+        <v>1264.010018709117</v>
+      </c>
+      <c r="S28">
+        <v>0.02938967773027387</v>
+      </c>
+      <c r="T28">
+        <v>0.02938967773027387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.718923666666667</v>
+      </c>
+      <c r="H29">
+        <v>11.156771</v>
+      </c>
+      <c r="I29">
+        <v>0.09199996889567036</v>
+      </c>
+      <c r="J29">
+        <v>0.09199996889567039</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>23.90063033333334</v>
+      </c>
+      <c r="N29">
+        <v>71.701891</v>
+      </c>
+      <c r="O29">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="P29">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="Q29">
+        <v>88.88461979488456</v>
+      </c>
+      <c r="R29">
+        <v>799.961578153961</v>
+      </c>
+      <c r="S29">
+        <v>0.01860002106831135</v>
+      </c>
+      <c r="T29">
+        <v>0.01860002106831135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.718923666666667</v>
+      </c>
+      <c r="H30">
+        <v>11.156771</v>
+      </c>
+      <c r="I30">
+        <v>0.09199996889567036</v>
+      </c>
+      <c r="J30">
+        <v>0.09199996889567039</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>56.08363733333334</v>
+      </c>
+      <c r="N30">
+        <v>168.250912</v>
+      </c>
+      <c r="O30">
+        <v>0.4744086217013212</v>
+      </c>
+      <c r="P30">
+        <v>0.474408621701321</v>
+      </c>
+      <c r="Q30">
+        <v>208.5707661916836</v>
+      </c>
+      <c r="R30">
+        <v>1877.136895725152</v>
+      </c>
+      <c r="S30">
+        <v>0.0436455784403594</v>
+      </c>
+      <c r="T30">
+        <v>0.04364557844035939</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.718923666666667</v>
+      </c>
+      <c r="H31">
+        <v>11.156771</v>
+      </c>
+      <c r="I31">
+        <v>0.09199996889567036</v>
+      </c>
+      <c r="J31">
+        <v>0.09199996889567039</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.254942</v>
+      </c>
+      <c r="N31">
+        <v>0.764826</v>
+      </c>
+      <c r="O31">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="P31">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="Q31">
+        <v>0.9481098374273333</v>
+      </c>
+      <c r="R31">
+        <v>8.532988536846</v>
+      </c>
+      <c r="S31">
+        <v>0.00019840173690248</v>
+      </c>
+      <c r="T31">
+        <v>0.00019840173690248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.039172</v>
+      </c>
+      <c r="H32">
+        <v>3.117516</v>
+      </c>
+      <c r="I32">
+        <v>0.02570738209395484</v>
+      </c>
+      <c r="J32">
+        <v>0.02570738209395486</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M32">
+        <v>0.1562936666666667</v>
+      </c>
+      <c r="N32">
+        <v>0.468881</v>
+      </c>
+      <c r="O32">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="P32">
+        <v>0.001322080137978314</v>
+      </c>
+      <c r="Q32">
+        <v>0.1624160021773333</v>
+      </c>
+      <c r="R32">
+        <v>1.461744019596</v>
+      </c>
+      <c r="S32">
+        <v>3.398721926583706E-05</v>
+      </c>
+      <c r="T32">
+        <v>3.398721926583707E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.039172</v>
+      </c>
+      <c r="H33">
+        <v>3.117516</v>
+      </c>
+      <c r="I33">
+        <v>0.02570738209395484</v>
+      </c>
+      <c r="J33">
+        <v>0.02570738209395486</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.05738533333333334</v>
+      </c>
+      <c r="N33">
+        <v>0.172156</v>
+      </c>
+      <c r="O33">
+        <v>0.0004854196016340919</v>
+      </c>
+      <c r="P33">
+        <v>0.0004854196016340918</v>
+      </c>
+      <c r="Q33">
+        <v>0.05963323161066667</v>
+      </c>
+      <c r="R33">
+        <v>0.536699084496</v>
+      </c>
+      <c r="S33">
+        <v>1.247886717510295E-05</v>
+      </c>
+      <c r="T33">
+        <v>1.247886717510295E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.039172</v>
+      </c>
+      <c r="H34">
+        <v>3.117516</v>
+      </c>
+      <c r="I34">
+        <v>0.02570738209395484</v>
+      </c>
+      <c r="J34">
+        <v>0.02570738209395486</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>37.765109</v>
+      </c>
+      <c r="N34">
+        <v>113.295327</v>
+      </c>
+      <c r="O34">
+        <v>0.3194531268114046</v>
+      </c>
+      <c r="P34">
+        <v>0.3194531268114045</v>
+      </c>
+      <c r="Q34">
+        <v>39.244443849748</v>
+      </c>
+      <c r="R34">
+        <v>353.199994647732</v>
+      </c>
+      <c r="S34">
+        <v>0.008212303592049389</v>
+      </c>
+      <c r="T34">
+        <v>0.008212303592049391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.039172</v>
+      </c>
+      <c r="H35">
+        <v>3.117516</v>
+      </c>
+      <c r="I35">
+        <v>0.02570738209395484</v>
+      </c>
+      <c r="J35">
+        <v>0.02570738209395486</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>23.90063033333334</v>
+      </c>
+      <c r="N35">
+        <v>71.701891</v>
+      </c>
+      <c r="O35">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="P35">
+        <v>0.2021742104000504</v>
+      </c>
+      <c r="Q35">
+        <v>24.83686582475067</v>
+      </c>
+      <c r="R35">
+        <v>223.531792422756</v>
+      </c>
+      <c r="S35">
+        <v>0.005197369676297716</v>
+      </c>
+      <c r="T35">
+        <v>0.005197369676297716</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.039172</v>
+      </c>
+      <c r="H36">
+        <v>3.117516</v>
+      </c>
+      <c r="I36">
+        <v>0.02570738209395484</v>
+      </c>
+      <c r="J36">
+        <v>0.02570738209395486</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>56.08363733333334</v>
+      </c>
+      <c r="N36">
+        <v>168.250912</v>
+      </c>
+      <c r="O36">
+        <v>0.4744086217013212</v>
+      </c>
+      <c r="P36">
+        <v>0.474408621701321</v>
+      </c>
+      <c r="Q36">
+        <v>58.28054557495467</v>
+      </c>
+      <c r="R36">
+        <v>524.524910174592</v>
+      </c>
+      <c r="S36">
+        <v>0.01219580370674234</v>
+      </c>
+      <c r="T36">
+        <v>0.01219580370674234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.039172</v>
+      </c>
+      <c r="H37">
+        <v>3.117516</v>
+      </c>
+      <c r="I37">
+        <v>0.02570738209395484</v>
+      </c>
+      <c r="J37">
+        <v>0.02570738209395486</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>0.254942</v>
+      </c>
+      <c r="N37">
+        <v>0.764826</v>
+      </c>
+      <c r="O37">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="P37">
+        <v>0.002156541347611445</v>
+      </c>
+      <c r="Q37">
+        <v>0.264928588024</v>
+      </c>
+      <c r="R37">
+        <v>2.384357292216</v>
+      </c>
+      <c r="S37">
+        <v>5.543903242445972E-05</v>
+      </c>
+      <c r="T37">
+        <v>5.543903242445972E-05</v>
       </c>
     </row>
   </sheetData>
